--- a/biology/Botanique/Saint-bris/Saint-bris.xlsx
+++ b/biology/Botanique/Saint-bris/Saint-bris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le saint-bris[2], est un vin blanc d'appellation d'origine contrôlée du vignoble de Bourgogne[3].
+Le saint-bris, est un vin blanc d'appellation d'origine contrôlée du vignoble de Bourgogne.
 Son aire de production est située à une dizaine de kilomètres au sud-est d'Auxerre, sur les territoires des communes de Chitry, Irancy, Quenne, Saint-Bris-le-Vineux et Vincelottes dans le département de l'Yonne (appelé aussi Basse-Bourgogne).
 </t>
         </is>
@@ -515,19 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-L’édit de l'empereur romain Domitien, en 92 interdisait la plantation de nouvelles vignes hors d’Italie ; il fit arracher partiellement les vignes en Bourgogne afin d’éviter la concurrence. Mais Probus annula cet édit en 280[4].
-Moyen Âge
-Dès le début du VIe siècle, l’implantation du christianisme avait favorisé l’extension de la vigne par la création d’importants domaines rattachés aux abbayes. En 1416, Charles VI fixa par un édit les limites de production du vin de Bourgogne[5]. En 1477, à la mort de Charles le Téméraire, le vignoble de Bourgogne fut rattaché à la France, sous le règne de Louis XI.
-Période moderne
-Période contemporaine
-XIXe siècle
-Dans les décennies 1830-1840, la pyrale survint et attaqua les feuilles de la vigne. Elle fut suivie d'une maladie cryptogamique, l'oïdium[6]. 
-Arrivèrent deux nouveaux fléaux de la vigne. Le premier fut le mildiou, autre maladie cryptogamique, le second le phylloxéra. Cet insecte térébrant venu d'Amérique (sur des plants de vigne importés illégalement) mis très fortement à mal le vignoble bourguignon[6]. Après de longues recherches, on finit par découvrir que seul le greffage sur des plants américains naturellement immunisés contre le phylloxéra permettrait à la vigne de pousser en présence de l'insecte.
-XXe siècle
-Le mildiou provoqua un désastre considérable en 1910. Apparition de l'enjambeur dans les années 1960-70, qui remplace le cheval. Les techniques en viticulture et œnologie ont bien évolué depuis 50 ans (vendange en vert, table de triage, cuve en inox, pressoir électrique, puis pneumatique...).
-XXIe siècle
-Avec la canicule de 2003, les vendanges débutèrent pour certains domaines cette année-là à la mi-août, soit avec un mois d'avance, des vendanges très précoces qui ne s'étaient pas vues depuis 1422 et 1865 d'après les archives[7]. Avant d'être une AOC (2003[8]), Saint Bris était classés en VDQS.
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’édit de l'empereur romain Domitien, en 92 interdisait la plantation de nouvelles vignes hors d’Italie ; il fit arracher partiellement les vignes en Bourgogne afin d’éviter la concurrence. Mais Probus annula cet édit en 280.
 </t>
         </is>
       </c>
@@ -553,10 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le début du VIe siècle, l’implantation du christianisme avait favorisé l’extension de la vigne par la création d’importants domaines rattachés aux abbayes. En 1416, Charles VI fixa par un édit les limites de production du vin de Bourgogne. En 1477, à la mort de Charles le Téméraire, le vignoble de Bourgogne fut rattaché à la France, sous le règne de Louis XI.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -579,18 +596,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géologie et orographie
-Argilo-calcaire kimmeridgien et portlandien.
-Climatologie
-Climat tempéré à légère tendance continental.
-Auxerre
-Pour la ville d'Auxerre (207 m), les valeurs climatiques de 1961 à 1990 : 
-Source : Infoclimat : Auxerre (1961-1990)[9]
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les décennies 1830-1840, la pyrale survint et attaqua les feuilles de la vigne. Elle fut suivie d'une maladie cryptogamique, l'oïdium. 
+Arrivèrent deux nouveaux fléaux de la vigne. Le premier fut le mildiou, autre maladie cryptogamique, le second le phylloxéra. Cet insecte térébrant venu d'Amérique (sur des plants de vigne importés illégalement) mis très fortement à mal le vignoble bourguignon. Après de longues recherches, on finit par découvrir que seul le greffage sur des plants américains naturellement immunisés contre le phylloxéra permettrait à la vigne de pousser en présence de l'insecte.
 </t>
         </is>
       </c>
@@ -616,23 +638,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vignoble</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-D'une superficie de 133 hectares de vignes donnant 8071 hectolitres de vins blancs[8]. Il est une des 5 appellations spécifiques du Vignoble Auxerrois
-Lieux-dits
-Encépagement
-Les cépages utilisés sont le Sauvignon blanc et le Sauvignon gris.
-Méthodes culturales
-Travail manuel
-Ce travail commence par la taille, en « guyot simple », avec une baguette de cinq à huit yeux et un courson de un à trois yeux[10]. Le tirage des sarments suit la taille. Les sarments sont enlevés et peuvent être brûlés ou mis au milieu du rang pour être broyés. On passe ensuite aux réparations. Puis vient le pliage des baguettes. Éventuellement, après le pliage des baguettes, une plantation de nouvelles greffes est réalisée. L'ébourgeonnage peut débuter dès que la vigne a commencé à pousser. Cette méthode permet, en partie, de réguler les rendements[10]. Le relevage est pratiqué lorsque la vigne commence à avoir bien poussé. En général, deux à trois relevages sont pratiqués. La vendange en vert est pratiquée de plus en plus dans cette appellation. Cette opération est faite dans le but de réguler les rendements et surtout d'augmenter la qualité des raisins restants[10]. Pour finir avec le travail manuel à la vigne, se réalise l'étape importante des vendanges.
-Travail mécanique
-L'enjambeur est d'une aide précieuse. Les différents travaux se composent du broyage des sarments, réalisé lorsque les sarments sont tirés et mis au milieu du rang. De trou fait à la tarière, là où les pieds de vignes sont manquants, en vue de planter des greffes au printemps. De labourage ou griffage, réalisé dans le but d'aérer les sols et de supprimer des mauvaises herbes. De désherbage fait chimiquement pour tuer les mauvaises herbes. De plusieurs traitements des vignes, réalisés dans le but de les protéger contre certaines maladies cryptogamiques (mildiou, oïdium, pourriture grise, etc.) et certains insectes (eudémis et cochylis)[10]. De plusieurs rognages consistant à reciper ou couper les branches de vignes (rameaux) qui dépassent du système de palissage. Des vendanges mécaniques se réalisant avec une machine à vendanger ou une tête de récolte montée sur un enjambeur.
-Rendements
-Les rendements visés sont de 58 hl/ha et ne peuvent dépasser 70 hl/ha pour les vins blancs[11].
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mildiou provoqua un désastre considérable en 1910. Apparition de l'enjambeur dans les années 1960-70, qui remplace le cheval. Les techniques en viticulture et œnologie ont bien évolué depuis 50 ans (vendange en vert, table de triage, cuve en inox, pressoir électrique, puis pneumatique...).
 </t>
         </is>
       </c>
@@ -658,20 +679,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vins</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Titres alcoométriques volumique minimal et maximal
-Vinification et élevage
-Voici les méthodes générales de vinification de cette appellation. Il existe cependant des petites différences de méthode entre les différents viticulteurs et négociants.
-Vinification en blanc
-Comme pour le rouge, la récolte est manuelle ou mécanique et peut être triée. Les raisins sont ensuite transférés dans un pressoir pour le pressurage. Une fois le moût en cuve, le débourbage est pratiqué généralement après un enzymage. À ce stade, une stabulation préfermentaire à froid (environ 10 à 12 degrés pendant plusieurs jours) peut être recherchée pour favoriser l'extraction des arômes[10]. Mais le plus souvent, après 12 à 48 heures, le jus clair est soutiré et mis à fermenter[10]. La fermentation alcoolique se déroule avec un suivi tout particulier pour les températures qui doivent rester à peu près stables (18 à 24 degrés)[10]. La chaptalisation est aussi pratiquée pour augmenter le titre alcoométrique volumique si nécessaire. La fermentation malolactique est réalisée en Fûts ou en cuves. Les vins sont élevés « sur lies », en fûts, dans lesquels le vinificateur réalise régulièrement un « bâtonnage », c'est-à-dire une remise en suspension des lies[10]. Cette opération dure pendant plusieurs mois au cours de l'élevage des blancs. À la fin, la filtration du vin est pratiquée pour rendre les vins plus limpides[10]. La mise en bouteille clôture l'opération.
-Terroir et vins
-Robe dorée à reflets vert-clair. Exprime des notes d’agrumes, et une certaine minéralité. Des vins frais et très agréables.
-Gastronomie, garde et température de service
-Accompagne des Fruits de mer, crustacés, poissons, ... ou tout simplement en apéritif. A boire dans sa jeunesse, même s'il peut être conservé quelques années. Se sert vers 11 à 12 °C.  
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec la canicule de 2003, les vendanges débutèrent pour certains domaines cette année-là à la mi-août, soit avec un mois d'avance, des vendanges très précoces qui ne s'étaient pas vues depuis 1422 et 1865 d'après les archives. Avant d'être une AOC (2003), Saint Bris était classés en VDQS.
 </t>
         </is>
       </c>
@@ -697,19 +720,581 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argilo-calcaire kimmeridgien et portlandien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Climat tempéré à légère tendance continental.
+Auxerre
+Pour la ville d'Auxerre (207 m), les valeurs climatiques de 1961 à 1990 : 
+Source : Infoclimat : Auxerre (1961-1990)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 133 hectares de vignes donnant 8071 hectolitres de vins blancs. Il est une des 5 appellations spécifiques du Vignoble Auxerrois
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés sont le Sauvignon blanc et le Sauvignon gris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Travail manuel</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce travail commence par la taille, en « guyot simple », avec une baguette de cinq à huit yeux et un courson de un à trois yeux. Le tirage des sarments suit la taille. Les sarments sont enlevés et peuvent être brûlés ou mis au milieu du rang pour être broyés. On passe ensuite aux réparations. Puis vient le pliage des baguettes. Éventuellement, après le pliage des baguettes, une plantation de nouvelles greffes est réalisée. L'ébourgeonnage peut débuter dès que la vigne a commencé à pousser. Cette méthode permet, en partie, de réguler les rendements. Le relevage est pratiqué lorsque la vigne commence à avoir bien poussé. En général, deux à trois relevages sont pratiqués. La vendange en vert est pratiquée de plus en plus dans cette appellation. Cette opération est faite dans le but de réguler les rendements et surtout d'augmenter la qualité des raisins restants. Pour finir avec le travail manuel à la vigne, se réalise l'étape importante des vendanges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Travail mécanique</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enjambeur est d'une aide précieuse. Les différents travaux se composent du broyage des sarments, réalisé lorsque les sarments sont tirés et mis au milieu du rang. De trou fait à la tarière, là où les pieds de vignes sont manquants, en vue de planter des greffes au printemps. De labourage ou griffage, réalisé dans le but d'aérer les sols et de supprimer des mauvaises herbes. De désherbage fait chimiquement pour tuer les mauvaises herbes. De plusieurs traitements des vignes, réalisés dans le but de les protéger contre certaines maladies cryptogamiques (mildiou, oïdium, pourriture grise, etc.) et certains insectes (eudémis et cochylis). De plusieurs rognages consistant à reciper ou couper les branches de vignes (rameaux) qui dépassent du système de palissage. Des vendanges mécaniques se réalisant avec une machine à vendanger ou une tête de récolte montée sur un enjambeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rendements visés sont de 58 hl/ha et ne peuvent dépasser 70 hl/ha pour les vins blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Titres alcoométriques volumique minimal et maximal</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici les méthodes générales de vinification de cette appellation. Il existe cependant des petites différences de méthode entre les différents viticulteurs et négociants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Vinification en blanc</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour le rouge, la récolte est manuelle ou mécanique et peut être triée. Les raisins sont ensuite transférés dans un pressoir pour le pressurage. Une fois le moût en cuve, le débourbage est pratiqué généralement après un enzymage. À ce stade, une stabulation préfermentaire à froid (environ 10 à 12 degrés pendant plusieurs jours) peut être recherchée pour favoriser l'extraction des arômes. Mais le plus souvent, après 12 à 48 heures, le jus clair est soutiré et mis à fermenter. La fermentation alcoolique se déroule avec un suivi tout particulier pour les températures qui doivent rester à peu près stables (18 à 24 degrés). La chaptalisation est aussi pratiquée pour augmenter le titre alcoométrique volumique si nécessaire. La fermentation malolactique est réalisée en Fûts ou en cuves. Les vins sont élevés « sur lies », en fûts, dans lesquels le vinificateur réalise régulièrement un « bâtonnage », c'est-à-dire une remise en suspension des lies. Cette opération dure pendant plusieurs mois au cours de l'élevage des blancs. À la fin, la filtration du vin est pratiquée pour rendre les vins plus limpides. La mise en bouteille clôture l'opération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robe dorée à reflets vert-clair. Exprime des notes d’agrumes, et une certaine minéralité. Des vins frais et très agréables.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Gastronomie, garde et température de service</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accompagne des Fruits de mer, crustacés, poissons, ... ou tout simplement en apéritif. A boire dans sa jeunesse, même s'il peut être conservé quelques années. Se sert vers 11 à 12 °C.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Structure des exploitations
-Il existe des domaines de tailles différentes. Ces domaines mettent tout ou une partie de leurs propres vins en bouteilles et s'occupent aussi de le vendre. Les autres, ainsi que ceux qui ne vendent pas tous leurs vins en bouteilles, les vendent aux maisons de négoce.
-Les maisons de négoce achètent leurs vins, en général, en vin fait (vin fini) mais parfois en raisin ou en moût[12]. Elles achètent aux domaines et passent par un courtier en vin qui sert d'intermédiaire moyennant une commission de l'ordre de 2 % à la charge de l'acheteur.
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des domaines de tailles différentes. Ces domaines mettent tout ou une partie de leurs propres vins en bouteilles et s'occupent aussi de le vendre. Les autres, ainsi que ceux qui ne vendent pas tous leurs vins en bouteilles, les vendent aux maisons de négoce.
+Les maisons de négoce achètent leurs vins, en général, en vin fait (vin fini) mais parfois en raisin ou en moût. Elles achètent aux domaines et passent par un courtier en vin qui sert d'intermédiaire moyennant une commission de l'ordre de 2 % à la charge de l'acheteur.
 Les caves coopératives et leurs apporteurs sont des vignerons. Ces derniers peuvent leur amener leurs récoltes, ou bien la cave coopérative vendange elle-même (machine à vendanger en général).
-Commercialisation
-La commercialisation de cette appellation se fait par divers canaux de vente : dans les caveaux du viticulteur, dans les salons des vins (vignerons indépendants, etc.), dans les foires gastronomiques, par exportation, dans les Cafés-Hôtels-Restaurants (C.H.R), dans les grandes et moyennes surfaces (G.M.S).
-Les producteurs de l'appellation
-Le Domaine Jacquet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commercialisation de cette appellation se fait par divers canaux de vente : dans les caveaux du viticulteur, dans les salons des vins (vignerons indépendants, etc.), dans les foires gastronomiques, par exportation, dans les Cafés-Hôtels-Restaurants (C.H.R), dans les grandes et moyennes surfaces (G.M.S).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Saint-bris</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-bris</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Les producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Le Domaine Jacquet
 Le Domaine des Remparts à Saint-Bris le Vineux
 Le Domaine Grand Roche à Saint-Bris le Vineux
 Le Domaine GRIVOT-GOISOT à Saint-Bris-Le-Vineux</t>
